--- a/Exams/Exam-01-1/Program_CheckList.xlsx
+++ b/Exams/Exam-01-1/Program_CheckList.xlsx
@@ -5,35 +5,27 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Dropbox\Personal\Cursos\Backend Development\Repository\Exams\Exam-01-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75C8E984-722C-4FA3-92C2-6B7E2037D20E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317707CB-C469-4867-ADAE-478649BBE015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="360" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="29">
   <si>
     <t>Creterio</t>
   </si>
@@ -117,6 +109,9 @@
   </si>
   <si>
     <t>Criterios de Codigo Limpio:Los Nombres de las variables y Funciones: (0.1/ cada una)</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
@@ -575,7 +570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -656,7 +653,7 @@
       </c>
       <c r="C6" s="19">
         <f>SUM(C10:C24)</f>
-        <v>1.5000000000000002</v>
+        <v>1.4000000000000001</v>
       </c>
       <c r="D6" s="2"/>
     </row>
@@ -667,7 +664,7 @@
       <c r="B7" s="15"/>
       <c r="C7" s="16">
         <f>SUM(C2:C6)</f>
-        <v>5</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="D7" s="15"/>
     </row>
@@ -733,11 +730,11 @@
         <v>13</v>
       </c>
       <c r="B13" s="22" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D13" s="4"/>
     </row>
